--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_23_6.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_23_6.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9990559510846171</v>
+        <v>0.9998925377574989</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9982646775113214</v>
+        <v>0.9990017300414165</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9991002735314128</v>
+        <v>0.9998956421129627</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9983119953308388</v>
+        <v>0.9997019731982758</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9986662566309036</v>
+        <v>0.9998944201986872</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0008812282235518014</v>
+        <v>0.0001003112863274855</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001619847371327738</v>
+        <v>0.00093184118735095</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0005847698859395315</v>
+        <v>5.943735384784643e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001591780315244846</v>
+        <v>7.536793032414157e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001088275100592189</v>
+        <v>6.7402642085994e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003446515483479293</v>
+        <v>0.001157406947181098</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0296854884337752</v>
+        <v>0.01001555222279258</v>
       </c>
       <c r="N2" t="n">
-        <v>1.001332774939364</v>
+        <v>1.000151711401178</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03094926113383353</v>
+        <v>0.01044193501596814</v>
       </c>
       <c r="P2" t="n">
-        <v>96.06838783001264</v>
+        <v>100.4144646872583</v>
       </c>
       <c r="Q2" t="n">
-        <v>146.0422966496089</v>
+        <v>150.3883735068545</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9990380357780339</v>
+        <v>0.9998905800097393</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9982492363360647</v>
+        <v>0.9989974663001265</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9990826128502238</v>
+        <v>0.9998936194201932</v>
       </c>
       <c r="E3" t="n">
-        <v>0.998284262849071</v>
+        <v>0.9997008106760291</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9986431977643463</v>
+        <v>0.9998932876719158</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0008979513758562599</v>
+        <v>0.0001021387579259228</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00163426103064064</v>
+        <v>0.0009358212026884887</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0005962483017526578</v>
+        <v>6.058938470316886e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001617931912676661</v>
+        <v>7.566192031155142e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001107090107214659</v>
+        <v>6.812565250736014e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003478649602260368</v>
+        <v>0.001167407431040082</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02996583681221434</v>
+        <v>0.01010637214463839</v>
       </c>
       <c r="N3" t="n">
-        <v>1.001358067136893</v>
+        <v>1.000154475280368</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03124154452314397</v>
+        <v>0.01053662132991008</v>
       </c>
       <c r="P3" t="n">
-        <v>96.03078927656294</v>
+        <v>100.3783565946493</v>
       </c>
       <c r="Q3" t="n">
-        <v>146.0046980961592</v>
+        <v>150.3522654142456</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9990197550478428</v>
+        <v>0.9998885745515449</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9982334383930715</v>
+        <v>0.9989931338489298</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9990645792906738</v>
+        <v>0.9998915438406372</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9982559452119091</v>
+        <v>0.9996995186793476</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9986196522609044</v>
+        <v>0.9998921059094549</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0009150156350582913</v>
+        <v>0.0001040107651209159</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001649007716975171</v>
+        <v>0.0009398653557078811</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0006079690668177322</v>
+        <v>6.177153738959567e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001644635308841403</v>
+        <v>7.598865305943305e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001126302187829567</v>
+        <v>6.888009522451437e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003511135307524422</v>
+        <v>0.001177499983952564</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03024922536294593</v>
+        <v>0.01019856681700502</v>
       </c>
       <c r="N4" t="n">
-        <v>1.001383875226575</v>
+        <v>1.000157306515466</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03153699751117538</v>
+        <v>0.01063274092034864</v>
       </c>
       <c r="P4" t="n">
-        <v>95.99313881067869</v>
+        <v>100.3420323068035</v>
       </c>
       <c r="Q4" t="n">
-        <v>145.9670476302749</v>
+        <v>150.3159411263997</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9990011126718037</v>
+        <v>0.9998865204208074</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9982173172422879</v>
+        <v>0.9989887207800388</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9990461698638182</v>
+        <v>0.9998894016954538</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9982271314416523</v>
+        <v>0.9996980687052528</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9985956703714628</v>
+        <v>0.9998908631641032</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0009324174747850382</v>
+        <v>0.000105928205998518</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001664056103594924</v>
+        <v>0.0009439847618064584</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000619934123775006</v>
+        <v>6.2991602732744e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001671806556137506</v>
+        <v>7.635533667956407e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001145870339956256</v>
+        <v>6.967346970615404e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00354394565595126</v>
+        <v>0.001187699373026456</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03053551170006879</v>
+        <v>0.01029214292548049</v>
       </c>
       <c r="N5" t="n">
-        <v>1.001410193875101</v>
+        <v>1.000160206464743</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03183547165036398</v>
+        <v>0.01073030075749115</v>
       </c>
       <c r="P5" t="n">
-        <v>95.9554598185052</v>
+        <v>100.3054979904511</v>
       </c>
       <c r="Q5" t="n">
-        <v>145.9293686381014</v>
+        <v>150.2794068100473</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9989820776204934</v>
+        <v>0.9998844146982068</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9982008323190484</v>
+        <v>0.9989842309416306</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9990273967957538</v>
+        <v>0.9998871947581831</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9981976887275311</v>
+        <v>0.9996963962944522</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9985711802209732</v>
+        <v>0.9998895474599383</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0009501858596410486</v>
+        <v>0.000107893805615662</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001679444055834521</v>
+        <v>0.0009481758288793237</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0006321355263724002</v>
+        <v>6.424857060743695e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0016995708944842</v>
+        <v>7.677827226777543e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0011658532104283</v>
+        <v>7.051342143760619e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003577106608352269</v>
+        <v>0.001198002403663567</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0308250849089025</v>
+        <v>0.01038719430913189</v>
       </c>
       <c r="N6" t="n">
-        <v>1.001437066888715</v>
+        <v>1.00016317924959</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03213737259019691</v>
+        <v>0.01082939867532809</v>
       </c>
       <c r="P6" t="n">
-        <v>95.91770590155522</v>
+        <v>100.2687261918295</v>
       </c>
       <c r="Q6" t="n">
-        <v>145.8916147211515</v>
+        <v>150.2426350114257</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9989626783701639</v>
+        <v>0.9998822602109629</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9981840044535447</v>
+        <v>0.9989796668389685</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9990082412046172</v>
+        <v>0.9998849261586169</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9981676645920762</v>
+        <v>0.999694569345657</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9985462017501121</v>
+        <v>0.9998881752028907</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0009682942082948387</v>
+        <v>0.0001099049248867192</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001695152129624297</v>
+        <v>0.0009524362183734227</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0006445855467231556</v>
+        <v>6.554065843120649e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001727883510362954</v>
+        <v>7.72402889344183e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001186234528543055</v>
+        <v>7.13894767955478e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003610591215045956</v>
+        <v>0.001208406554833214</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03111742611937624</v>
+        <v>0.01048355497370616</v>
       </c>
       <c r="N7" t="n">
-        <v>1.001464454065651</v>
+        <v>1.000166220878641</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03244215937123025</v>
+        <v>0.01092986161288736</v>
       </c>
       <c r="P7" t="n">
-        <v>95.8799491653549</v>
+        <v>100.2317897702454</v>
       </c>
       <c r="Q7" t="n">
-        <v>145.8538579849511</v>
+        <v>150.2056985898417</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9989429081479475</v>
+        <v>0.9998800523278106</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9981668434064661</v>
+        <v>0.9989750206047904</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9989886885040752</v>
+        <v>0.9998825820709435</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9981371663934275</v>
+        <v>0.9996925334210262</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9985207911861829</v>
+        <v>0.9998867262779111</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0009867488429214687</v>
+        <v>0.0001119658868945064</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001711171213789289</v>
+        <v>0.0009567732740326266</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0006572936650957563</v>
+        <v>6.687574073738784e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00175664316556193</v>
+        <v>7.775515345277053e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001206968415328843</v>
+        <v>7.231447732212539e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003644388629338924</v>
+        <v>0.001218914431438061</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03141255868154437</v>
+        <v>0.01058139342877423</v>
       </c>
       <c r="N8" t="n">
-        <v>1.001492364967604</v>
+        <v>1.00016933789015</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03274985633757851</v>
+        <v>0.0110318652535412</v>
       </c>
       <c r="P8" t="n">
-        <v>95.84219003207539</v>
+        <v>100.1946326287251</v>
       </c>
       <c r="Q8" t="n">
-        <v>145.8160988516716</v>
+        <v>150.1685414483213</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9989227404271243</v>
+        <v>0.9998777868131994</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9981493179276906</v>
+        <v>0.998970292516183</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9989687092477595</v>
+        <v>0.9998801714243423</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9981061056557452</v>
+        <v>0.99969033782857</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9984948856760439</v>
+        <v>0.999885214561635</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001005574525049318</v>
+        <v>0.0001140806453394317</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001727530478946619</v>
+        <v>0.0009611867372084769</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0006702790199172782</v>
+        <v>6.824873188455997e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001785933292374384</v>
+        <v>7.831039633125396e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001228106156145831</v>
+        <v>7.327956410790697e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003678543420309848</v>
+        <v>0.001229547922062489</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03171079508699392</v>
+        <v>0.01068085414840179</v>
       </c>
       <c r="N9" t="n">
-        <v>1.00152083704406</v>
+        <v>1.000172536263719</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03306078928424251</v>
+        <v>0.01113556022191538</v>
       </c>
       <c r="P9" t="n">
-        <v>95.80439246818906</v>
+        <v>100.1572098888237</v>
       </c>
       <c r="Q9" t="n">
-        <v>145.7783012877853</v>
+        <v>150.1311187084199</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9989021639785246</v>
+        <v>0.9998754696934319</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9981314198339589</v>
+        <v>0.9989654826799297</v>
       </c>
       <c r="D10" t="n">
-        <v>0.99894835678872</v>
+        <v>0.9998776803448962</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9980744094566617</v>
+        <v>0.9996879388286606</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9984684643306472</v>
+        <v>0.9998836281976545</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001024781736615461</v>
+        <v>0.0001162435749326049</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001744237563809582</v>
+        <v>0.0009656765082235424</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0006835069348076925</v>
+        <v>6.966753380458601e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001815822656243422</v>
+        <v>7.891707887448498e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001249664795525557</v>
+        <v>7.42923063395355e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003713063553689915</v>
+        <v>0.001240290073624396</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0320122123042982</v>
+        <v>0.01078163136694095</v>
       </c>
       <c r="N10" t="n">
-        <v>1.001549886147965</v>
+        <v>1.000175807491626</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0333750384565071</v>
+        <v>0.01124062773528535</v>
       </c>
       <c r="P10" t="n">
-        <v>95.76655125790808</v>
+        <v>100.1196455688423</v>
       </c>
       <c r="Q10" t="n">
-        <v>145.7404600775043</v>
+        <v>150.0935543884386</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.998881208855022</v>
+        <v>0.9998731002578288</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9981131739850819</v>
+        <v>0.9989605901555595</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9989276124577849</v>
+        <v>0.9998751249982426</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9980421944306984</v>
+        <v>0.9996853193366168</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9984415871115537</v>
+        <v>0.9998819694941458</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001044342424581483</v>
+        <v>0.0001184553390619365</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001761269262836058</v>
+        <v>0.0009702434649661027</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0006969895436429905</v>
+        <v>7.112293930931811e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001846201271374267</v>
+        <v>7.957952162358553e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001271595407508629</v>
+        <v>7.535123046645182e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003747885709104856</v>
+        <v>0.001251112902941048</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03231628729575047</v>
+        <v>0.01088371899039738</v>
       </c>
       <c r="N11" t="n">
-        <v>1.001579469851734</v>
+        <v>1.000179152577183</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0336920585498675</v>
+        <v>0.01134706144022283</v>
       </c>
       <c r="P11" t="n">
-        <v>95.72873570081092</v>
+        <v>100.0819491079632</v>
       </c>
       <c r="Q11" t="n">
-        <v>145.7026445204071</v>
+        <v>150.0558579275594</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9988598177993159</v>
+        <v>0.999870671360427</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9980945188459646</v>
+        <v>0.9989556152477388</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9989064245378649</v>
+        <v>0.9998724912436008</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9980093503033515</v>
+        <v>0.9996825120235799</v>
       </c>
       <c r="F12" t="n">
-        <v>0.998414169699553</v>
+        <v>0.9998802386142285</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001064310036124277</v>
+        <v>0.0001207226081702147</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001778683016336186</v>
+        <v>0.0009748873230435418</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0007107604595240934</v>
+        <v>7.262300232357812e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001877173126095635</v>
+        <v>8.028946238104739e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001293966792809864</v>
+        <v>7.645623235231275e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00378309140050347</v>
+        <v>0.001262053777154609</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0326237648980659</v>
+        <v>0.0109873840458143</v>
       </c>
       <c r="N12" t="n">
-        <v>1.001609668989201</v>
+        <v>1.000182581608809</v>
       </c>
       <c r="O12" t="n">
-        <v>0.03401262611027987</v>
+        <v>0.0114551397316651</v>
       </c>
       <c r="P12" t="n">
-        <v>95.69085708634576</v>
+        <v>100.044030277234</v>
       </c>
       <c r="Q12" t="n">
-        <v>145.664765905942</v>
+        <v>150.0179390968302</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9988380056390387</v>
+        <v>0.9998681817665508</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9980754755123475</v>
+        <v>0.9989505456765541</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9988848051436833</v>
+        <v>0.9998697827619371</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9979758843408061</v>
+        <v>0.9996794798202022</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9983862211183268</v>
+        <v>0.9998784298577932</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001084670730299866</v>
+        <v>0.000123046534773133</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001796459132361975</v>
+        <v>0.0009796195452160474</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0007248118085852898</v>
+        <v>7.416562634186141e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.001908731368429734</v>
+        <v>8.105627560582156e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001316771588507511</v>
+        <v>7.761095097384149e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003818664152900293</v>
+        <v>0.001273121661779608</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03293433968215951</v>
+        <v>0.01109263425761135</v>
       </c>
       <c r="N13" t="n">
-        <v>1.001640462627239</v>
+        <v>1.000186096329575</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03433642270591078</v>
+        <v>0.01156487066287633</v>
       </c>
       <c r="P13" t="n">
-        <v>95.65295762485077</v>
+        <v>100.0058958853046</v>
       </c>
       <c r="Q13" t="n">
-        <v>145.626866444447</v>
+        <v>149.9798047049008</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9988157857340285</v>
+        <v>0.9998656328673298</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9980560651170703</v>
+        <v>0.9989453975814451</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9988627640147234</v>
+        <v>0.9998669918461488</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9979417887775548</v>
+        <v>0.9996762163524067</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9983577407595463</v>
+        <v>0.999876539436502</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001105412036285802</v>
+        <v>0.0001254258203121556</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001814577884335299</v>
+        <v>0.0009844250660249604</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0007391372607286251</v>
+        <v>7.575520096789963e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001940883321212851</v>
+        <v>8.18815732367875e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001340010290970738</v>
+        <v>7.881780482370424e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003854542068770793</v>
+        <v>0.001284299271009031</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03324773731076751</v>
+        <v>0.01119936696033109</v>
       </c>
       <c r="N14" t="n">
-        <v>1.001671831904901</v>
+        <v>1.000189694775534</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03466316232039114</v>
+        <v>0.011676147197718</v>
       </c>
       <c r="P14" t="n">
-        <v>95.61507425999928</v>
+        <v>99.96759209470997</v>
       </c>
       <c r="Q14" t="n">
-        <v>145.5889830795955</v>
+        <v>149.9415009143062</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9987931025395412</v>
+        <v>0.9998630255362078</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9980362039909805</v>
+        <v>0.9989401516315655</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9988402848917566</v>
+        <v>0.9998641214843277</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9979069954802936</v>
+        <v>0.9996727624564962</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9983286827769969</v>
+        <v>0.9998745740352117</v>
       </c>
       <c r="G15" t="n">
-        <v>0.001126585802662449</v>
+        <v>0.0001278596494659364</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001833117373737585</v>
+        <v>0.0009893219299669923</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0007537473835073258</v>
+        <v>7.739002432507118e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.001973693233824207</v>
+        <v>8.275502819058103e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001363720308665766</v>
+        <v>8.007252625782611e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003890826939432353</v>
+        <v>0.001295580920243937</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03356465108804871</v>
+        <v>0.01130750412186245</v>
       </c>
       <c r="N15" t="n">
-        <v>1.001703855238295</v>
+        <v>1.000193375713589</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03499356777327316</v>
+        <v>0.01178888798209054</v>
       </c>
       <c r="P15" t="n">
-        <v>95.57712726703184</v>
+        <v>99.92915476835077</v>
       </c>
       <c r="Q15" t="n">
-        <v>145.5510360866281</v>
+        <v>149.903063587947</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9987700001126385</v>
+        <v>0.9998603539275054</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9980159692458379</v>
+        <v>0.998934817434045</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9988173413483445</v>
+        <v>0.9998611708611769</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9978716771938392</v>
+        <v>0.9996690331865087</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9982991364659309</v>
+        <v>0.9998725192017672</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001148150904096899</v>
+        <v>0.0001303534789196119</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00185200562012542</v>
+        <v>0.0009943011692081691</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0007686593525696504</v>
+        <v>7.907056076816635e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.002006998208729511</v>
+        <v>8.369812243229034e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001387828780649581</v>
+        <v>8.138434160022833e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.003927437817937398</v>
+        <v>0.001306995892992383</v>
       </c>
       <c r="M16" t="n">
-        <v>0.033884375515817</v>
+        <v>0.0114172448042254</v>
       </c>
       <c r="N16" t="n">
-        <v>1.001736470429216</v>
+        <v>1.000197147396463</v>
       </c>
       <c r="O16" t="n">
-        <v>0.03532690353185237</v>
+        <v>0.01190330055249621</v>
       </c>
       <c r="P16" t="n">
-        <v>95.53920508032348</v>
+        <v>99.89052145775199</v>
       </c>
       <c r="Q16" t="n">
-        <v>145.5131138999197</v>
+        <v>149.8644302773482</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9987464258078778</v>
+        <v>0.9998576183993954</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9979952888062078</v>
+        <v>0.9989293895021584</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9987939500082759</v>
+        <v>0.9998581341062007</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9978356681441888</v>
+        <v>0.9996650953556866</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9982690126550563</v>
+        <v>0.999870384638689</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001170156482798603</v>
+        <v>0.0001329069743345027</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001871309902753799</v>
+        <v>0.0009993679053657049</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0007838623634196541</v>
+        <v>8.080015385587689e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.002040954570018829</v>
+        <v>8.469395957616317e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001412408466719242</v>
+        <v>8.274705671602002e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003964454029888526</v>
+        <v>0.001318526884962675</v>
       </c>
       <c r="M17" t="n">
-        <v>0.03420755008471964</v>
+        <v>0.01152852871508341</v>
       </c>
       <c r="N17" t="n">
-        <v>1.001769751800643</v>
+        <v>1.000201009318501</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03566383631121678</v>
+        <v>0.01201932204982889</v>
       </c>
       <c r="P17" t="n">
-        <v>95.50123558626791</v>
+        <v>99.85172223111906</v>
       </c>
       <c r="Q17" t="n">
-        <v>145.4751444058641</v>
+        <v>149.8256310507153</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9987223892180237</v>
+        <v>0.999854817208833</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9979741677637443</v>
+        <v>0.9989238632171787</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9987701170346944</v>
+        <v>0.9998550078744931</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9977989693583159</v>
+        <v>0.9996609160532165</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9982383143924047</v>
+        <v>0.9998681623354553</v>
       </c>
       <c r="G18" t="n">
-        <v>0.001192593584343054</v>
+        <v>0.0001355217627664684</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001891025468786924</v>
+        <v>0.001004526449818255</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0007993524103721437</v>
+        <v>8.258070868973412e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.002075561349261198</v>
+        <v>8.575086243037257e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001437456879816671</v>
+        <v>8.416578556005336e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004001849765739921</v>
+        <v>0.001330163475928207</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03453394828777986</v>
+        <v>0.01164138148015382</v>
       </c>
       <c r="N18" t="n">
-        <v>1.001803685809849</v>
+        <v>1.000204963940471</v>
       </c>
       <c r="O18" t="n">
-        <v>0.03600412996151869</v>
+        <v>0.01213697919074578</v>
       </c>
       <c r="P18" t="n">
-        <v>95.4632497216889</v>
+        <v>99.81275663943683</v>
       </c>
       <c r="Q18" t="n">
-        <v>145.4371585412851</v>
+        <v>149.7866654590331</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9986978994796107</v>
+        <v>0.9998519488302772</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9979526425701866</v>
+        <v>0.998918248275638</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9987457861832448</v>
+        <v>0.9998517968822824</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9977616842056015</v>
+        <v>0.9996564643150679</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9982070790092268</v>
+        <v>0.9998658482630041</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001215453680176281</v>
+        <v>0.0001381992682409881</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001911118292126159</v>
+        <v>0.001009767751279109</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0008151660489875782</v>
+        <v>8.440953912739576e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.002110721069625743</v>
+        <v>8.687666148152365e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00146294355930666</v>
+        <v>8.564310030445969e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004039603449385989</v>
+        <v>0.001341941675918127</v>
       </c>
       <c r="M19" t="n">
-        <v>0.03486335727058255</v>
+        <v>0.01175581848452025</v>
       </c>
       <c r="N19" t="n">
-        <v>1.001838259558196</v>
+        <v>1.000209013416079</v>
       </c>
       <c r="O19" t="n">
-        <v>0.03634756256668988</v>
+        <v>0.01225628801530535</v>
       </c>
       <c r="P19" t="n">
-        <v>95.42527574512752</v>
+        <v>99.7736278831449</v>
       </c>
       <c r="Q19" t="n">
-        <v>145.3991845647238</v>
+        <v>149.7475367027411</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9986729166536784</v>
+        <v>0.9998490149773052</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9979306413231254</v>
+        <v>0.9989125292675889</v>
       </c>
       <c r="D20" t="n">
-        <v>0.998720983503946</v>
+        <v>0.9998484935402651</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9977236002503466</v>
+        <v>0.9996517932782989</v>
       </c>
       <c r="F20" t="n">
-        <v>0.998175194125085</v>
+        <v>0.9998634495604645</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001238774051564759</v>
+        <v>0.0001409378912091052</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001931655490514681</v>
+        <v>0.001015106194257543</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0008312863482685048</v>
+        <v>8.629096768008582e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.002146634056958612</v>
+        <v>8.805791891111505e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001488960202613558</v>
+        <v>8.717444329560044e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.004077736158267085</v>
+        <v>0.001353812453702999</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03519622212063049</v>
+        <v>0.01187172654709942</v>
       </c>
       <c r="N20" t="n">
-        <v>1.001873529430101</v>
+        <v>1.000213155326158</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0366945981625296</v>
+        <v>0.01237713052407128</v>
       </c>
       <c r="P20" t="n">
-        <v>95.38726611302559</v>
+        <v>99.73438250501616</v>
       </c>
       <c r="Q20" t="n">
-        <v>145.3611749326218</v>
+        <v>149.7082913246124</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.998647469546293</v>
+        <v>0.9998460114813564</v>
       </c>
       <c r="C21" t="n">
-        <v>0.99790823513501</v>
+        <v>0.9989067088144022</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9986955722738712</v>
+        <v>0.9998450954470772</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9976850615619853</v>
+        <v>0.9996468149630595</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9981428041068632</v>
+        <v>0.999860947731021</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00126252780931007</v>
+        <v>0.0001437415228389863</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001952570683602334</v>
+        <v>0.001020539331818825</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0008478021701668586</v>
+        <v>8.822636205173085e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.002182975855432073</v>
+        <v>8.931688392339357e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001515389012799466</v>
+        <v>8.877162298756221e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004116222297077297</v>
+        <v>0.001365820839692949</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03553206733797049</v>
+        <v>0.01198922528101738</v>
       </c>
       <c r="N21" t="n">
-        <v>1.001909454758175</v>
+        <v>1.000217395555732</v>
       </c>
       <c r="O21" t="n">
-        <v>0.03704474100606721</v>
+        <v>0.01249963142234804</v>
       </c>
       <c r="P21" t="n">
-        <v>95.34927873976213</v>
+        <v>99.69498770316116</v>
       </c>
       <c r="Q21" t="n">
-        <v>145.3231875593584</v>
+        <v>149.6688965227574</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9986215094120406</v>
+        <v>0.9998429393823401</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9978853564322158</v>
+        <v>0.9989007933763505</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9986696920731497</v>
+        <v>0.9998416027661085</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9976457301123542</v>
+        <v>0.9996415840940935</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9981097692165488</v>
+        <v>0.9998583545639863</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001286760455116557</v>
+        <v>0.0001466091924211279</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001973926948401867</v>
+        <v>0.001026061133582436</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0008646227957151322</v>
+        <v>9.021562918349764e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.002220065223984508</v>
+        <v>9.063971719032927e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.00154234400984982</v>
+        <v>9.042711302763598e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.004155130991227394</v>
+        <v>0.00137793160491569</v>
       </c>
       <c r="M22" t="n">
-        <v>0.03587144344902442</v>
+        <v>0.01210822829406218</v>
       </c>
       <c r="N22" t="n">
-        <v>1.001946104359472</v>
+        <v>1.000221732636696</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0373985650607741</v>
+        <v>0.01262370064002835</v>
       </c>
       <c r="P22" t="n">
-        <v>95.31125498850481</v>
+        <v>99.65548013275416</v>
       </c>
       <c r="Q22" t="n">
-        <v>145.2851638081011</v>
+        <v>149.6293889523504</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9985950391026573</v>
+        <v>0.999839793566612</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9978619891115978</v>
+        <v>0.9988947666056304</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9986433277841983</v>
+        <v>0.9998380122305389</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9976056745101146</v>
+        <v>0.9996361061659924</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9980761230785832</v>
+        <v>0.999855667058085</v>
       </c>
       <c r="G23" t="n">
-        <v>0.001311469327013519</v>
+        <v>0.0001495456733180019</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001995739316491807</v>
+        <v>0.001031686859505007</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0008817580504634283</v>
+        <v>9.226062970246212e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.002257837464977219</v>
+        <v>9.202502918594304e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001569797757720323</v>
+        <v>9.214282944420258e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.004194427904152722</v>
+        <v>0.001390174201839349</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03621421443319624</v>
+        <v>0.01222888683887466</v>
       </c>
       <c r="N23" t="n">
-        <v>1.001983474208013</v>
+        <v>1.000226173788312</v>
       </c>
       <c r="O23" t="n">
-        <v>0.03775592851537587</v>
+        <v>0.01274949586889111</v>
       </c>
       <c r="P23" t="n">
-        <v>95.27321429328903</v>
+        <v>99.61581740929503</v>
       </c>
       <c r="Q23" t="n">
-        <v>145.2471231128853</v>
+        <v>149.5897262288913</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9985680432333681</v>
+        <v>0.9998365713865639</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9978381299032063</v>
+        <v>0.9988886341844001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9986164404386914</v>
+        <v>0.9998343208266592</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9975648566745213</v>
+        <v>0.9996302999878693</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9980418281681788</v>
+        <v>0.9998528704203052</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001336668786013326</v>
+        <v>0.0001525534369555429</v>
       </c>
       <c r="H24" t="n">
-        <v>0.002018010840227106</v>
+        <v>0.001037411205541327</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0008992332615573091</v>
+        <v>9.43630800760397e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.002296328488370278</v>
+        <v>9.349335225522367e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001597780874963794</v>
+        <v>9.392821616563169e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.004234133113987645</v>
+        <v>0.001402558005345362</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03656048120598696</v>
+        <v>0.01235125244481477</v>
       </c>
       <c r="N24" t="n">
-        <v>1.00202158602348</v>
+        <v>1.00023072274838</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03811693658155532</v>
+        <v>0.01287707083200782</v>
       </c>
       <c r="P24" t="n">
-        <v>95.2351494815738</v>
+        <v>99.57599123405778</v>
       </c>
       <c r="Q24" t="n">
-        <v>145.20905830117</v>
+        <v>149.549900053654</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9985405395725437</v>
+        <v>0.9998332750148909</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9978138067320681</v>
+        <v>0.9988823965567803</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9985889687274903</v>
+        <v>0.9998305344874638</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9975234894269382</v>
+        <v>0.9996242416553545</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9980069830459628</v>
+        <v>0.9998499814915655</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001362342246121663</v>
+        <v>0.0001556304552183286</v>
       </c>
       <c r="H25" t="n">
-        <v>0.002040715452820833</v>
+        <v>0.001043233757124164</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0009170882763717596</v>
+        <v>9.651960114918955e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.002335337604637317</v>
+        <v>9.502544259144677e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.001626212940504539</v>
+        <v>9.577252187031816e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.004274229476334662</v>
+        <v>0.001415061983710348</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03690992070056048</v>
+        <v>0.01247519359442284</v>
       </c>
       <c r="N25" t="n">
-        <v>1.002060414721115</v>
+        <v>1.000235376449566</v>
       </c>
       <c r="O25" t="n">
-        <v>0.03848125243885232</v>
+        <v>0.01300628841294825</v>
       </c>
       <c r="P25" t="n">
-        <v>95.19709964158641</v>
+        <v>99.53605247549584</v>
       </c>
       <c r="Q25" t="n">
-        <v>145.1710084611827</v>
+        <v>149.5099612950921</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9985125135258125</v>
+        <v>0.9998299007106248</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9977889750745694</v>
+        <v>0.9988760483087735</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9985610320842535</v>
+        <v>0.9998266362375321</v>
       </c>
       <c r="E26" t="n">
-        <v>0.997481322273392</v>
+        <v>0.999617871231455</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9979714905315722</v>
+        <v>0.9998469808282</v>
       </c>
       <c r="G26" t="n">
-        <v>0.001388503330544064</v>
+        <v>0.000158780220135875</v>
       </c>
       <c r="H26" t="n">
-        <v>0.002063894715112056</v>
+        <v>0.001049159567982599</v>
       </c>
       <c r="I26" t="n">
-        <v>0.000935245469973893</v>
+        <v>9.873986132460954e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.002375101028394994</v>
+        <v>9.663645764720415e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001655173249184443</v>
+        <v>9.768815948590684e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.004314694157736323</v>
+        <v>0.001427696037478628</v>
       </c>
       <c r="M26" t="n">
-        <v>0.03726262645794125</v>
+        <v>0.01260080236079731</v>
       </c>
       <c r="N26" t="n">
-        <v>1.002099980904735</v>
+        <v>1.000240140173235</v>
       </c>
       <c r="O26" t="n">
-        <v>0.03884897361052636</v>
+        <v>0.01313724460455328</v>
       </c>
       <c r="P26" t="n">
-        <v>95.1590577051139</v>
+        <v>99.49597915049517</v>
       </c>
       <c r="Q26" t="n">
-        <v>145.1329665247101</v>
+        <v>149.4698879700914</v>
       </c>
     </row>
   </sheetData>
